--- a/data/extracted_data/raw_round2/data/Wu_etal_2022_Fig1.xlsx
+++ b/data/extracted_data/raw_round2/data/Wu_etal_2022_Fig1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{CF576EFC-0750-D246-BB86-1248680A55A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6497E04F-D8E1-F042-B339-FE6847269C48}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{CF576EFC-0750-D246-BB86-1248680A55A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D771E37D-26DF-B44B-8DB0-543746AA35FF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{2437C0AD-B360-3746-8EAF-79ACE0BB77DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="16">
   <si>
     <t>treatment</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>hepatopancreas</t>
-  </si>
-  <si>
-    <t>Bay's scallop</t>
   </si>
   <si>
     <t>edible tissue</t>
@@ -122,10 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,10 +137,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,16 +439,15 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+      <selection activeCell="A83" sqref="A83:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="43.83203125" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -467,16 +458,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -487,12 +478,12 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>43557</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <f>$D2-$D$2</f>
         <v>0</v>
       </c>
@@ -508,12 +499,12 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>43563</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <f t="shared" ref="E3:E66" si="0">$D3-$D$2</f>
         <v>6</v>
       </c>
@@ -529,12 +520,12 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>43566</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -550,12 +541,12 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>43571</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -571,12 +562,12 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>43574</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -592,12 +583,12 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>43578</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -613,12 +604,12 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>43582</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -634,12 +625,12 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>43587</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -655,12 +646,12 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>43592</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -676,12 +667,12 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>43557</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -697,12 +688,12 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
         <v>43563</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -718,12 +709,12 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>43566</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -739,12 +730,12 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
         <v>43571</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -760,12 +751,12 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>43574</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -781,12 +772,12 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1">
         <v>43578</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -802,12 +793,12 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
         <v>43582</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -823,12 +814,12 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
         <v>43587</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -844,12 +835,12 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1">
         <v>43592</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -865,12 +856,12 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
         <v>43557</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -886,12 +877,12 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1">
         <v>43563</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -907,12 +898,12 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1">
         <v>43566</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -928,12 +919,12 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1">
         <v>43571</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -949,12 +940,12 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1">
         <v>43574</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -970,12 +961,12 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1">
         <v>43578</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -991,12 +982,12 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1">
         <v>43582</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -1012,12 +1003,12 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
         <v>43587</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1033,12 +1024,12 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1">
         <v>43592</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -1054,12 +1045,12 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1">
         <v>43557</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1075,12 +1066,12 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1">
         <v>43563</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1096,12 +1087,12 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1">
         <v>43566</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1117,12 +1108,12 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1">
         <v>43571</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1138,12 +1129,12 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
         <v>43574</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1159,12 +1150,12 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1">
         <v>43578</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1180,12 +1171,12 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1">
         <v>43582</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -1201,12 +1192,12 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1">
         <v>43587</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1222,12 +1213,12 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1">
         <v>43592</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -1243,12 +1234,12 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1">
         <v>43557</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1264,12 +1255,12 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1">
         <v>43563</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1285,12 +1276,12 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1">
         <v>43566</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1306,12 +1297,12 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1">
         <v>43571</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1327,12 +1318,12 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1">
         <v>43574</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1348,12 +1339,12 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="1">
         <v>43578</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1369,12 +1360,12 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="1">
         <v>43582</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -1390,12 +1381,12 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1">
         <v>43587</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1411,12 +1402,12 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="1">
         <v>43592</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -1432,12 +1423,12 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1">
         <v>43557</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1453,12 +1444,12 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1">
         <v>43563</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1474,12 +1465,12 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="1">
         <v>43566</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1495,12 +1486,12 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="1">
         <v>43571</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1516,12 +1507,12 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1">
         <v>43574</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1537,12 +1528,12 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1">
         <v>43578</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1558,12 +1549,12 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1">
         <v>43582</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -1579,12 +1570,12 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1">
         <v>43587</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1600,12 +1591,12 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1">
         <v>43592</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -1621,12 +1612,12 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="1">
         <v>43557</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1642,12 +1633,12 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1">
         <v>43563</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1663,12 +1654,12 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="1">
         <v>43566</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1684,12 +1675,12 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1">
         <v>43571</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1705,12 +1696,12 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" s="1">
         <v>43574</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1726,12 +1717,12 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="1">
         <v>43578</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1747,12 +1738,12 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="1">
         <v>43582</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -1768,12 +1759,12 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="1">
         <v>43587</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1789,12 +1780,12 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" s="1">
         <v>43592</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -1810,12 +1801,12 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1">
         <v>43557</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1831,12 +1822,12 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="1">
         <v>43563</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1852,12 +1843,12 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="1">
         <v>43566</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67">
         <f t="shared" ref="E67:E130" si="1">$D67-$D$2</f>
         <v>9</v>
       </c>
@@ -1873,12 +1864,12 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1">
         <v>43571</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -1894,12 +1885,12 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" s="1">
         <v>43574</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -1915,12 +1906,12 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="1">
         <v>43578</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -1936,12 +1927,12 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="1">
         <v>43582</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1957,12 +1948,12 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" s="1">
         <v>43587</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -1978,12 +1969,12 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="1">
         <v>43592</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -1999,12 +1990,12 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1">
         <v>43557</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2020,12 +2011,12 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" s="1">
         <v>43563</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2041,12 +2032,12 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" s="1">
         <v>43566</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2062,12 +2053,12 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" s="1">
         <v>43571</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2083,12 +2074,12 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78" s="1">
         <v>43574</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2104,12 +2095,12 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" s="1">
         <v>43578</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -2125,12 +2116,12 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80" s="1">
         <v>43582</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2146,12 +2137,12 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" s="1">
         <v>43587</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -2167,12 +2158,12 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" s="1">
         <v>43592</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -2182,18 +2173,18 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" s="1">
         <v>43557</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2203,18 +2194,18 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" s="1">
         <v>43563</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2224,18 +2215,18 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" s="1">
         <v>43566</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2245,18 +2236,18 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" s="1">
         <v>43571</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2266,18 +2257,18 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" s="1">
         <v>43574</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2287,18 +2278,18 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" s="1">
         <v>43578</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -2308,18 +2299,18 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="1">
         <v>43582</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2329,18 +2320,18 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" s="1">
         <v>43587</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -2350,18 +2341,18 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" s="1">
         <v>43592</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -2374,15 +2365,15 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" s="1">
         <v>43557</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2395,15 +2386,15 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" s="1">
         <v>43563</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2416,15 +2407,15 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" s="1">
         <v>43566</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2437,15 +2428,15 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95" s="1">
         <v>43571</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2458,15 +2449,15 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96" s="1">
         <v>43574</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2479,15 +2470,15 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" s="1">
         <v>43578</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -2500,15 +2491,15 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" s="1">
         <v>43582</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2521,15 +2512,15 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99" s="1">
         <v>43587</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -2542,15 +2533,15 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D100" s="1">
         <v>43592</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -2563,15 +2554,15 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" s="1">
         <v>43557</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2584,15 +2575,15 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" s="1">
         <v>43563</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2605,15 +2596,15 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" s="1">
         <v>43566</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2626,15 +2617,15 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104" s="1">
         <v>43571</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2647,15 +2638,15 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D105" s="1">
         <v>43574</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2668,15 +2659,15 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106" s="1">
         <v>43578</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -2689,15 +2680,15 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" s="1">
         <v>43582</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2710,15 +2701,15 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" s="1">
         <v>43587</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -2731,15 +2722,15 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" s="1">
         <v>43592</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -2752,15 +2743,15 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" s="1">
         <v>43557</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2773,15 +2764,15 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" s="1">
         <v>43563</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2794,15 +2785,15 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" s="1">
         <v>43566</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2815,15 +2806,15 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" s="1">
         <v>43571</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2836,15 +2827,15 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" s="1">
         <v>43574</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2857,15 +2848,15 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" s="1">
         <v>43578</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -2878,15 +2869,15 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" s="1">
         <v>43582</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -2899,15 +2890,15 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" s="1">
         <v>43587</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -2920,15 +2911,15 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" s="1">
         <v>43592</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -2938,18 +2929,18 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119" s="1">
         <v>43557</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2959,18 +2950,18 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D120" s="1">
         <v>43563</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2980,18 +2971,18 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D121" s="1">
         <v>43566</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -3001,18 +2992,18 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" s="1">
         <v>43571</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -3022,18 +3013,18 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" s="1">
         <v>43574</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -3043,18 +3034,18 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" s="1">
         <v>43578</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -3064,18 +3055,18 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" s="1">
         <v>43582</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -3085,18 +3076,18 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" s="1">
         <v>43587</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -3106,18 +3097,18 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" s="1">
         <v>43592</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -3130,15 +3121,15 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D128" s="1">
         <v>43557</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3151,15 +3142,15 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" s="1">
         <v>43563</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3172,15 +3163,15 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130" s="1">
         <v>43566</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -3193,15 +3184,15 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" s="1">
         <v>43571</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131">
         <f t="shared" ref="E131:E136" si="2">$D131-$D$2</f>
         <v>14</v>
       </c>
@@ -3214,15 +3205,15 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" s="1">
         <v>43574</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -3235,15 +3226,15 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" s="1">
         <v>43578</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -3256,15 +3247,15 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" s="1">
         <v>43582</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3277,15 +3268,15 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" s="1">
         <v>43587</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -3298,15 +3289,15 @@
         <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" s="1">
         <v>43592</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
